--- a/Code/Results/Cases/Case_9_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.459956598011843</v>
+        <v>2.446965924259928</v>
       </c>
       <c r="C2">
-        <v>0.6152436033576691</v>
+        <v>0.7331044558945052</v>
       </c>
       <c r="D2">
-        <v>0.0555197520087205</v>
+        <v>0.07182254441488567</v>
       </c>
       <c r="E2">
-        <v>0.07107672327953196</v>
+        <v>0.07505199974620425</v>
       </c>
       <c r="F2">
-        <v>1.414605196296279</v>
+        <v>1.193814983706744</v>
       </c>
       <c r="G2">
-        <v>1.136443339497703</v>
+        <v>0.8894815200610111</v>
       </c>
       <c r="H2">
-        <v>0.001870679362024008</v>
+        <v>0.001505149813037177</v>
       </c>
       <c r="I2">
-        <v>0.002240191807841185</v>
+        <v>0.001433311999854858</v>
       </c>
       <c r="J2">
-        <v>0.734206502586531</v>
+        <v>0.6467719753094343</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1027661415819949</v>
+        <v>0.2272767449549846</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1441147530981937</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.09850125687755451</v>
       </c>
       <c r="O2">
-        <v>0.6611557415445048</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6972764067027128</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.140746668309362</v>
+        <v>2.131796097772224</v>
       </c>
       <c r="C3">
-        <v>0.537276765274072</v>
+        <v>0.6328217124055868</v>
       </c>
       <c r="D3">
-        <v>0.04991320544347388</v>
+        <v>0.06417017279608217</v>
       </c>
       <c r="E3">
-        <v>0.06441656046614419</v>
+        <v>0.06845598907245254</v>
       </c>
       <c r="F3">
-        <v>1.316623320122943</v>
+        <v>1.126134746829791</v>
       </c>
       <c r="G3">
-        <v>1.04960292750151</v>
+        <v>0.8361694594921261</v>
       </c>
       <c r="H3">
-        <v>0.003759215608917899</v>
+        <v>0.003075821529562761</v>
       </c>
       <c r="I3">
-        <v>0.004147798347050813</v>
+        <v>0.002617563984122828</v>
       </c>
       <c r="J3">
-        <v>0.698470858299828</v>
+        <v>0.6212997298871699</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09350465381348982</v>
+        <v>0.2305306857300309</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1382962403206029</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09076936297119786</v>
       </c>
       <c r="O3">
-        <v>0.5765650857462248</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6067711645470339</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.944808629434021</v>
+        <v>1.938052741177614</v>
       </c>
       <c r="C4">
-        <v>0.4899368073216976</v>
+        <v>0.5720252608195437</v>
       </c>
       <c r="D4">
-        <v>0.04652686820257657</v>
+        <v>0.05955174600165947</v>
       </c>
       <c r="E4">
-        <v>0.06033887210367439</v>
+        <v>0.06441310361013919</v>
       </c>
       <c r="F4">
-        <v>1.256943093289848</v>
+        <v>1.084782744470346</v>
       </c>
       <c r="G4">
-        <v>0.9967016133734461</v>
+        <v>0.8038126633050666</v>
       </c>
       <c r="H4">
-        <v>0.005295125923600708</v>
+        <v>0.004361094729202208</v>
       </c>
       <c r="I4">
-        <v>0.005743047342504859</v>
+        <v>0.003665433831596676</v>
       </c>
       <c r="J4">
-        <v>0.6768212834068947</v>
+        <v>0.6055367340238291</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08779306160213096</v>
+        <v>0.2323959321874227</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1354076684642429</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.08597862735095418</v>
       </c>
       <c r="O4">
-        <v>0.5248195683870165</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5514003440234845</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.864727022203482</v>
+        <v>1.85882649661383</v>
       </c>
       <c r="C5">
-        <v>0.4719342201530026</v>
+        <v>0.5485574169604774</v>
       </c>
       <c r="D5">
-        <v>0.04528600035581576</v>
+        <v>0.05781246063034473</v>
       </c>
       <c r="E5">
-        <v>0.05869424837515069</v>
+        <v>0.06278002877961519</v>
       </c>
       <c r="F5">
-        <v>1.230618918845153</v>
+        <v>1.066301114567565</v>
       </c>
       <c r="G5">
-        <v>0.9730375398283542</v>
+        <v>0.7890178700650381</v>
       </c>
       <c r="H5">
-        <v>0.006014465014623549</v>
+        <v>0.004964338935465329</v>
       </c>
       <c r="I5">
-        <v>0.006575452425393369</v>
+        <v>0.004260425272220481</v>
       </c>
       <c r="J5">
-        <v>0.6669391240527887</v>
+        <v>0.598183166707102</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08539013979325816</v>
+        <v>0.2326448209898082</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1340808213770615</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08395813020223741</v>
       </c>
       <c r="O5">
-        <v>0.5040993550713893</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5291683662729909</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.851149879826039</v>
+        <v>1.84542006356557</v>
       </c>
       <c r="C6">
-        <v>0.4703841430099942</v>
+        <v>0.5460511491403679</v>
       </c>
       <c r="D6">
-        <v>0.0452355939662894</v>
+        <v>0.05767671006768893</v>
       </c>
       <c r="E6">
-        <v>0.05844035171915252</v>
+        <v>0.06252580876321367</v>
       </c>
       <c r="F6">
-        <v>1.223678244296138</v>
+        <v>1.061195506520889</v>
       </c>
       <c r="G6">
-        <v>0.9664326918657622</v>
+        <v>0.7845046644058868</v>
       </c>
       <c r="H6">
-        <v>0.006143707062632286</v>
+        <v>0.005072492541902118</v>
       </c>
       <c r="I6">
-        <v>0.006826638262812601</v>
+        <v>0.004484602076999522</v>
       </c>
       <c r="J6">
-        <v>0.6639272318734299</v>
+        <v>0.5958654867369688</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08490853942886645</v>
+        <v>0.2321028392007385</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1334817300994686</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08355347149603531</v>
       </c>
       <c r="O6">
-        <v>0.501060044113153</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5258329777908983</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.942961681896861</v>
+        <v>1.936236784185212</v>
       </c>
       <c r="C7">
-        <v>0.4936129305322368</v>
+        <v>0.5749540219043183</v>
       </c>
       <c r="D7">
-        <v>0.04693320410866875</v>
+        <v>0.0602048601734495</v>
       </c>
       <c r="E7">
-        <v>0.06036912876353284</v>
+        <v>0.06448885296284068</v>
       </c>
       <c r="F7">
-        <v>1.2495466658889</v>
+        <v>1.075853429244304</v>
       </c>
       <c r="G7">
-        <v>0.9890505430177114</v>
+        <v>0.8006169443261228</v>
       </c>
       <c r="H7">
-        <v>0.005315650441178099</v>
+        <v>0.004384170927722808</v>
       </c>
       <c r="I7">
-        <v>0.006027864535979255</v>
+        <v>0.003989953249285527</v>
       </c>
       <c r="J7">
-        <v>0.6729311656326757</v>
+        <v>0.5946562332047165</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08753611893092028</v>
+        <v>0.230166048238015</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1338276162850214</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08569075146876415</v>
       </c>
       <c r="O7">
-        <v>0.5256320266207339</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5521252584127154</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.348824557203727</v>
+        <v>2.337166521721826</v>
       </c>
       <c r="C8">
-        <v>0.5934757368631836</v>
+        <v>0.7016196787665194</v>
       </c>
       <c r="D8">
-        <v>0.0541367825291843</v>
+        <v>0.07060565797618068</v>
       </c>
       <c r="E8">
-        <v>0.06884713066123638</v>
+        <v>0.0730126058694438</v>
       </c>
       <c r="F8">
-        <v>1.371375752726777</v>
+        <v>1.152827692192204</v>
       </c>
       <c r="G8">
-        <v>1.096672416402214</v>
+        <v>0.8724400337251552</v>
       </c>
       <c r="H8">
-        <v>0.002450348095616173</v>
+        <v>0.001998808505978777</v>
       </c>
       <c r="I8">
-        <v>0.003126071670423336</v>
+        <v>0.002153064714565112</v>
       </c>
       <c r="J8">
-        <v>0.7168485885820104</v>
+        <v>0.6085528360068508</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09927738843391154</v>
+        <v>0.2244487211999413</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1387502952948338</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09535367271365303</v>
       </c>
       <c r="O8">
-        <v>0.6333995544355346</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6675004679772059</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.147731043746433</v>
+        <v>3.12389174945389</v>
       </c>
       <c r="C9">
-        <v>0.7870325694946985</v>
+        <v>0.9518709648411345</v>
       </c>
       <c r="D9">
-        <v>0.06800515723160316</v>
+        <v>0.0899879265648309</v>
       </c>
       <c r="E9">
-        <v>0.08554061731560836</v>
+        <v>0.08956696543172171</v>
       </c>
       <c r="F9">
-        <v>1.627590979123241</v>
+        <v>1.327183235688707</v>
       </c>
       <c r="G9">
-        <v>1.325085826033614</v>
+        <v>1.017496988168588</v>
       </c>
       <c r="H9">
-        <v>3.93961552624944E-05</v>
+        <v>2.421599446389422E-05</v>
       </c>
       <c r="I9">
-        <v>0.0006826665111852037</v>
+        <v>0.000813898310312311</v>
       </c>
       <c r="J9">
-        <v>0.8124040956216163</v>
+        <v>0.6680195503986681</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1226051614847847</v>
+        <v>0.2171862376281908</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1578139256375231</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1146255245429018</v>
       </c>
       <c r="O9">
-        <v>0.8446840109783196</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8937234500945266</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.743071752264996</v>
+        <v>3.708431408994443</v>
       </c>
       <c r="C10">
-        <v>0.9366832961439968</v>
+        <v>1.137732824395584</v>
       </c>
       <c r="D10">
-        <v>0.07733555162344885</v>
+        <v>0.1043933222072582</v>
       </c>
       <c r="E10">
-        <v>0.09393004419398565</v>
+        <v>0.09793398281849264</v>
       </c>
       <c r="F10">
-        <v>1.778295670545333</v>
+        <v>1.408633149782744</v>
       </c>
       <c r="G10">
-        <v>1.46004132540105</v>
+        <v>1.117363486900175</v>
       </c>
       <c r="H10">
-        <v>0.0006875969079711552</v>
+        <v>0.0006328444101022512</v>
       </c>
       <c r="I10">
-        <v>0.001617870967310253</v>
+        <v>0.001912393294970727</v>
       </c>
       <c r="J10">
-        <v>0.8663304256206743</v>
+        <v>0.6556052938113908</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1326708686605826</v>
+        <v>0.2038983323835737</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1671615300509863</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1218200910952589</v>
       </c>
       <c r="O10">
-        <v>0.9916888682428606</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.050649546004401</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.068024723995165</v>
+        <v>4.033081879721294</v>
       </c>
       <c r="C11">
-        <v>1.027291744395967</v>
+        <v>1.209046765535902</v>
       </c>
       <c r="D11">
-        <v>0.07004787726314277</v>
+        <v>0.09585873135767287</v>
       </c>
       <c r="E11">
-        <v>0.06772013218123085</v>
+        <v>0.07048993787813274</v>
       </c>
       <c r="F11">
-        <v>1.519149715591311</v>
+        <v>1.175006368739773</v>
       </c>
       <c r="G11">
-        <v>1.236263642210389</v>
+        <v>0.9845132260184926</v>
       </c>
       <c r="H11">
-        <v>0.01931972110400437</v>
+        <v>0.01922192134840017</v>
       </c>
       <c r="I11">
-        <v>0.002714341382397123</v>
+        <v>0.003025222308266073</v>
       </c>
       <c r="J11">
-        <v>0.7469172094407099</v>
+        <v>0.4943638905663192</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.08976642233447052</v>
+        <v>0.1625975278449943</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1296727487628893</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.0825091813407699</v>
       </c>
       <c r="O11">
-        <v>0.969376271394168</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.022534849570512</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.220081833111749</v>
+        <v>4.18763707255215</v>
       </c>
       <c r="C12">
-        <v>1.066394475284767</v>
+        <v>1.22505375147017</v>
       </c>
       <c r="D12">
-        <v>0.0618574432275949</v>
+        <v>0.08455484128545265</v>
       </c>
       <c r="E12">
-        <v>0.05122763304471434</v>
+        <v>0.05273722830433947</v>
       </c>
       <c r="F12">
-        <v>1.295812327223913</v>
+        <v>0.9943618207607869</v>
       </c>
       <c r="G12">
-        <v>1.044778496009428</v>
+        <v>0.8569691636641039</v>
       </c>
       <c r="H12">
-        <v>0.05788687912117751</v>
+        <v>0.05779320211912875</v>
       </c>
       <c r="I12">
-        <v>0.002857210352408934</v>
+        <v>0.003137589632202342</v>
       </c>
       <c r="J12">
-        <v>0.6473958270131419</v>
+        <v>0.4039871316457351</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.07055147273936324</v>
+        <v>0.1382876361034882</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1031445811155649</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06668532525715287</v>
       </c>
       <c r="O12">
-        <v>0.9177553147285877</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9641246409630213</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.24492071123376</v>
+        <v>4.217761668201263</v>
       </c>
       <c r="C13">
-        <v>1.073952876309022</v>
+        <v>1.206900998427159</v>
       </c>
       <c r="D13">
-        <v>0.05318861787976203</v>
+        <v>0.07096921201366513</v>
       </c>
       <c r="E13">
-        <v>0.04131550591307942</v>
+        <v>0.04166351766557685</v>
       </c>
       <c r="F13">
-        <v>1.076650169438139</v>
+        <v>0.8379813245531693</v>
       </c>
       <c r="G13">
-        <v>0.8558865804982076</v>
+        <v>0.7134667806754038</v>
       </c>
       <c r="H13">
-        <v>0.1134032288931337</v>
+        <v>0.1133494158650734</v>
       </c>
       <c r="I13">
-        <v>0.00254315178809783</v>
+        <v>0.002863420337103406</v>
       </c>
       <c r="J13">
-        <v>0.5516177758306924</v>
+        <v>0.3580466098406418</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.06790129909886744</v>
+        <v>0.1223532521928998</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08216209034455346</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06720330996029666</v>
       </c>
       <c r="O13">
-        <v>0.8427959519040584</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.8809945916310582</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.204388783770639</v>
+        <v>4.182160051463143</v>
       </c>
       <c r="C14">
-        <v>1.066302759190194</v>
+        <v>1.179965657038565</v>
       </c>
       <c r="D14">
-        <v>0.0471326996792456</v>
+        <v>0.06101954059922576</v>
       </c>
       <c r="E14">
-        <v>0.0383697898406723</v>
+        <v>0.03812211662532561</v>
       </c>
       <c r="F14">
-        <v>0.9271087465491377</v>
+        <v>0.738218747072608</v>
       </c>
       <c r="G14">
-        <v>0.7263043353906511</v>
+        <v>0.6085034662260824</v>
       </c>
       <c r="H14">
-        <v>0.1625776854825318</v>
+        <v>0.1625544947698216</v>
       </c>
       <c r="I14">
-        <v>0.002240554997619881</v>
+        <v>0.002619427443775635</v>
       </c>
       <c r="J14">
-        <v>0.4868812969177156</v>
+        <v>0.3406916972228942</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.0759268105050559</v>
+        <v>0.1142476743334857</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06993071261808836</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07704441218337266</v>
       </c>
       <c r="O14">
-        <v>0.7806851668353119</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8126216264987391</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.166612109641108</v>
+        <v>4.146152493151135</v>
       </c>
       <c r="C15">
-        <v>1.059334476778986</v>
+        <v>1.167704889476454</v>
       </c>
       <c r="D15">
-        <v>0.04560088147002261</v>
+        <v>0.05829635453338256</v>
       </c>
       <c r="E15">
-        <v>0.03807394396660202</v>
+        <v>0.03775909362236995</v>
       </c>
       <c r="F15">
-        <v>0.8879452197339361</v>
+        <v>0.7148051771537496</v>
       </c>
       <c r="G15">
-        <v>0.6917775582251124</v>
+        <v>0.5783798467660546</v>
       </c>
       <c r="H15">
-        <v>0.1750235877157138</v>
+        <v>0.175010231077394</v>
       </c>
       <c r="I15">
-        <v>0.002203666879524668</v>
+        <v>0.002624467810138142</v>
       </c>
       <c r="J15">
-        <v>0.4701548417362176</v>
+        <v>0.3414830572885705</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.0789428378674728</v>
+        <v>0.1129561969272519</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.06731596747533253</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08044425068452554</v>
       </c>
       <c r="O15">
-        <v>0.7611238045095519</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.7912038772028893</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.90184791467442</v>
+        <v>3.885998712113064</v>
       </c>
       <c r="C16">
-        <v>0.9949423079929716</v>
+        <v>1.098829595597635</v>
       </c>
       <c r="D16">
-        <v>0.04374353037083623</v>
+        <v>0.05398920324675771</v>
       </c>
       <c r="E16">
-        <v>0.03679746177258902</v>
+        <v>0.03694839984532194</v>
       </c>
       <c r="F16">
-        <v>0.8683548859256405</v>
+        <v>0.7273592790186996</v>
       </c>
       <c r="G16">
-        <v>0.6717812419478122</v>
+        <v>0.5456180507956958</v>
       </c>
       <c r="H16">
-        <v>0.1620848999807265</v>
+        <v>0.1620817848026093</v>
       </c>
       <c r="I16">
-        <v>0.001762657520704813</v>
+        <v>0.002224597221908375</v>
       </c>
       <c r="J16">
-        <v>0.4658116979839946</v>
+        <v>0.3913811000201548</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.0753022526516105</v>
+        <v>0.1201074763817225</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07104920223423505</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0769202521697423</v>
       </c>
       <c r="O16">
-        <v>0.7159265292061505</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.743216768007521</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.721031504872656</v>
+        <v>3.705884101111678</v>
       </c>
       <c r="C17">
-        <v>0.9499784662607169</v>
+        <v>1.059704370522013</v>
       </c>
       <c r="D17">
-        <v>0.04547830056836233</v>
+        <v>0.05589286693300011</v>
       </c>
       <c r="E17">
-        <v>0.03668436829115362</v>
+        <v>0.03731760640804449</v>
       </c>
       <c r="F17">
-        <v>0.9302562142057269</v>
+        <v>0.7875472740086948</v>
       </c>
       <c r="G17">
-        <v>0.7230693164793109</v>
+        <v>0.5764926651520312</v>
       </c>
       <c r="H17">
-        <v>0.1242788962311039</v>
+        <v>0.1242582624415149</v>
       </c>
       <c r="I17">
-        <v>0.001673438163256158</v>
+        <v>0.002114905640050679</v>
       </c>
       <c r="J17">
-        <v>0.4958853815836335</v>
+        <v>0.4375189650691738</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.06656123678409109</v>
+        <v>0.130479741974721</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.07981317370099106</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06761222291516233</v>
       </c>
       <c r="O17">
-        <v>0.713919917168532</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7423714222518143</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.592759022054565</v>
+        <v>3.575370911853724</v>
       </c>
       <c r="C18">
-        <v>0.9130622293080251</v>
+        <v>1.039258653329341</v>
       </c>
       <c r="D18">
-        <v>0.05055900099959132</v>
+        <v>0.06309335706711749</v>
       </c>
       <c r="E18">
-        <v>0.04120509340282119</v>
+        <v>0.04246062135428907</v>
       </c>
       <c r="F18">
-        <v>1.082433354927232</v>
+        <v>0.9104469432839153</v>
       </c>
       <c r="G18">
-        <v>0.8537440431041006</v>
+        <v>0.6688658495585003</v>
       </c>
       <c r="H18">
-        <v>0.07145098217636559</v>
+        <v>0.07142533170998888</v>
       </c>
       <c r="I18">
-        <v>0.001427551403954119</v>
+        <v>0.001805242981212096</v>
       </c>
       <c r="J18">
-        <v>0.5649986884624809</v>
+        <v>0.4991828430260625</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.06149032479651106</v>
+        <v>0.1477286983082919</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09659622783080479</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06101837903748386</v>
       </c>
       <c r="O18">
-        <v>0.7483121252496829</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7815914956040544</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.515155164264911</v>
+        <v>3.493718170084946</v>
       </c>
       <c r="C19">
-        <v>0.8938057353572049</v>
+        <v>1.043345172289435</v>
       </c>
       <c r="D19">
-        <v>0.05913182144453799</v>
+        <v>0.07538410199781964</v>
       </c>
       <c r="E19">
-        <v>0.05462660084471871</v>
+        <v>0.05673610936269746</v>
       </c>
       <c r="F19">
-        <v>1.300684554087368</v>
+        <v>1.078958371195171</v>
       </c>
       <c r="G19">
-        <v>1.04116157866244</v>
+        <v>0.8026186146170176</v>
       </c>
       <c r="H19">
-        <v>0.02619345140528395</v>
+        <v>0.02618266822286586</v>
       </c>
       <c r="I19">
-        <v>0.00155978230224374</v>
+        <v>0.001972052123409007</v>
       </c>
       <c r="J19">
-        <v>0.661235756701771</v>
+        <v>0.5724511297904797</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07314059359387137</v>
+        <v>0.170070422532369</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1195998432731464</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.06994087608486943</v>
       </c>
       <c r="O19">
-        <v>0.8125468440735801</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8532636683175454</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.584129678452484</v>
+        <v>3.553186058894767</v>
       </c>
       <c r="C20">
-        <v>0.9098420244679915</v>
+        <v>1.10297082064676</v>
       </c>
       <c r="D20">
-        <v>0.07613864372273582</v>
+        <v>0.100856359442389</v>
       </c>
       <c r="E20">
-        <v>0.09170088152165334</v>
+        <v>0.09550173717590482</v>
       </c>
       <c r="F20">
-        <v>1.714961278794803</v>
+        <v>1.380069875138147</v>
       </c>
       <c r="G20">
-        <v>1.400120822640872</v>
+        <v>1.063020774758911</v>
       </c>
       <c r="H20">
-        <v>0.0003330476096929935</v>
+        <v>0.000321784307825812</v>
       </c>
       <c r="I20">
-        <v>0.001929828346046492</v>
+        <v>0.002398948841509707</v>
       </c>
       <c r="J20">
-        <v>0.8397140516090644</v>
+        <v>0.6761218329994847</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1290169454083099</v>
+        <v>0.205382127500723</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.162399023866957</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1193413671470829</v>
       </c>
       <c r="O20">
-        <v>0.9560168238833526</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.011753299543599</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.033429932771298</v>
+        <v>3.990613851892761</v>
       </c>
       <c r="C21">
-        <v>1.020994203563049</v>
+        <v>1.236463283091268</v>
       </c>
       <c r="D21">
-        <v>0.08544415582679932</v>
+        <v>0.12072397335929</v>
       </c>
       <c r="E21">
-        <v>0.1045569743880215</v>
+        <v>0.1097032267645766</v>
       </c>
       <c r="F21">
-        <v>1.895891218793565</v>
+        <v>1.43378694549115</v>
       </c>
       <c r="G21">
-        <v>1.561177633623231</v>
+        <v>1.234357611976151</v>
       </c>
       <c r="H21">
-        <v>0.001488866910491327</v>
+        <v>0.001251041805221176</v>
       </c>
       <c r="I21">
-        <v>0.003470555593322544</v>
+        <v>0.003714251054100615</v>
       </c>
       <c r="J21">
-        <v>0.9101957445995765</v>
+        <v>0.5568811580641579</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1478295013339732</v>
+        <v>0.1930872634708045</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1673421550453646</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1335087549075027</v>
       </c>
       <c r="O21">
-        <v>1.085102731203953</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.151404838288158</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.33238333233777</v>
+        <v>4.28125207152533</v>
       </c>
       <c r="C22">
-        <v>1.090181828437665</v>
+        <v>1.317794382530224</v>
       </c>
       <c r="D22">
-        <v>0.09030723671839525</v>
+        <v>0.1328557666384853</v>
       </c>
       <c r="E22">
-        <v>0.1108663496680933</v>
+        <v>0.1169425319874442</v>
       </c>
       <c r="F22">
-        <v>2.005186455275719</v>
+        <v>1.457156496958646</v>
       </c>
       <c r="G22">
-        <v>1.660444335434846</v>
+        <v>1.349900306071248</v>
       </c>
       <c r="H22">
-        <v>0.002839246305756493</v>
+        <v>0.002328977697306778</v>
       </c>
       <c r="I22">
-        <v>0.00480163001751599</v>
+        <v>0.004625324316510415</v>
       </c>
       <c r="J22">
-        <v>0.9532885390543697</v>
+        <v>0.4782049547451805</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1569156676267554</v>
+        <v>0.1842433548354094</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1695984380323701</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1396719802717143</v>
       </c>
       <c r="O22">
-        <v>1.163173668752606</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.235972877187962</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.17372212500112</v>
+        <v>4.127175092160599</v>
       </c>
       <c r="C23">
-        <v>1.048340217514237</v>
+        <v>1.271127973524983</v>
       </c>
       <c r="D23">
-        <v>0.08718624860616586</v>
+        <v>0.1250019029953506</v>
       </c>
       <c r="E23">
-        <v>0.1074271195614571</v>
+        <v>0.1128471425375324</v>
       </c>
       <c r="F23">
-        <v>1.955076217447157</v>
+        <v>1.458736717526918</v>
       </c>
       <c r="G23">
-        <v>1.616053546814783</v>
+        <v>1.286808858412769</v>
       </c>
       <c r="H23">
-        <v>0.002073505624992977</v>
+        <v>0.001725934267901019</v>
       </c>
       <c r="I23">
-        <v>0.003754220785290308</v>
+        <v>0.003765854351868825</v>
       </c>
       <c r="J23">
-        <v>0.9346421725101948</v>
+        <v>0.5377416769738943</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1523344973827747</v>
+        <v>0.19135050237076</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1713305904239668</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.136782876692358</v>
       </c>
       <c r="O23">
-        <v>1.120126430251162</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.189465068575132</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.57350742575386</v>
+        <v>3.542012464648224</v>
       </c>
       <c r="C24">
-        <v>0.8993626203713063</v>
+        <v>1.094811478902386</v>
       </c>
       <c r="D24">
-        <v>0.07637004853972229</v>
+        <v>0.1015210663246862</v>
       </c>
       <c r="E24">
-        <v>0.09465066140321099</v>
+        <v>0.09858925445179523</v>
       </c>
       <c r="F24">
-        <v>1.75484313395468</v>
+        <v>1.410913778764183</v>
       </c>
       <c r="G24">
-        <v>1.436827596823974</v>
+        <v>1.089137766811206</v>
       </c>
       <c r="H24">
-        <v>0.0002432193946164674</v>
+        <v>0.000229845307496479</v>
       </c>
       <c r="I24">
-        <v>0.001460824993438692</v>
+        <v>0.001830133633207609</v>
       </c>
       <c r="J24">
-        <v>0.8584516714492452</v>
+        <v>0.6910248270046679</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1346867918092371</v>
+        <v>0.2107128821956259</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1679161975934989</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1244891806034261</v>
       </c>
       <c r="O24">
-        <v>0.9602126770531498</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.016989324948987</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.929790021302949</v>
+        <v>2.909877874358358</v>
       </c>
       <c r="C25">
-        <v>0.7413192061517293</v>
+        <v>0.8912330724302251</v>
       </c>
       <c r="D25">
-        <v>0.06496844894525822</v>
+        <v>0.08505646038461379</v>
       </c>
       <c r="E25">
-        <v>0.08109396694694126</v>
+        <v>0.08507972933310626</v>
       </c>
       <c r="F25">
-        <v>1.544887696139838</v>
+        <v>1.274237692055422</v>
       </c>
       <c r="G25">
-        <v>1.249405768388215</v>
+        <v>0.9638837494467367</v>
       </c>
       <c r="H25">
-        <v>0.0003171189151462972</v>
+        <v>0.0002386682039070553</v>
       </c>
       <c r="I25">
-        <v>0.001342651821072849</v>
+        <v>0.001360247314446283</v>
       </c>
       <c r="J25">
-        <v>0.7794285502205867</v>
+        <v>0.6577198804904612</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1158780291058079</v>
+        <v>0.2177517230545405</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1505855037145665</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1091999860107435</v>
       </c>
       <c r="O25">
-        <v>0.7892701232775607</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.8339724995152054</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
